--- a/Carac_Completas.xlsx
+++ b/Carac_Completas.xlsx
@@ -1837,13 +1837,13 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.0211188</v>
+        <v>7.58666666666667e-005</v>
       </c>
       <c r="B106">
-        <v>0.0211196</v>
+        <v>1.77333333333333e-005</v>
       </c>
       <c r="C106">
-        <v>-6.66666666666667e-007</v>
+        <v>2.97333333333333e-005</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -1851,13 +1851,13 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.0213333333333333</v>
+        <v>-0.000185733333333333</v>
       </c>
       <c r="B107">
-        <v>0.000213333333333333</v>
+        <v>1.76e-005</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>5.26666666666667e-005</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -1865,13 +1865,13 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.000213333333333333</v>
+        <v>1.97333333333333e-005</v>
       </c>
       <c r="B108">
-        <v>0.02112</v>
+        <v>1.34666666666667e-005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -1879,13 +1879,13 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>-0.02112</v>
+        <v>2.41333333333333e-005</v>
       </c>
       <c r="B109">
-        <v>0.000213333333333333</v>
+        <v>3.45333333333333e-005</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>4.64e-005</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>-0.000213333333333333</v>
+        <v>2.32e-005</v>
       </c>
       <c r="B110">
-        <v>-0.02112</v>
+        <v>4.94666666666667e-005</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.0001076</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>-0.02112</v>
+        <v>3.50666666666667e-005</v>
       </c>
       <c r="B111">
-        <v>-0.0213333333333333</v>
+        <v>3.41333333333333e-005</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.000170266666666667</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.0209066666666667</v>
+        <v>-2.38666666666667e-005</v>
       </c>
       <c r="B112">
-        <v>0.0209066666666667</v>
+        <v>1.44e-005</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>8.08e-005</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.0213333333333333</v>
+        <v>2.45333333333333e-005</v>
       </c>
       <c r="B113">
-        <v>0.000213333333333333</v>
+        <v>3.6e-005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>0.000204133333333333</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -1949,13 +1949,13 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.000213333333333333</v>
+        <v>9.98666666666667e-005</v>
       </c>
       <c r="B114">
-        <v>0.02112</v>
+        <v>5.37333333333333e-005</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.000158533333333333</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>-0.02112</v>
+        <v>-5.22224046413851e-023</v>
       </c>
       <c r="B115">
-        <v>0.000213333333333333</v>
+        <v>2.4e-005</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>7.05333333333333e-005</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.000213333333333333</v>
+        <v>2.66666666666667e-007</v>
       </c>
       <c r="B116">
-        <v>-0.02112</v>
+        <v>2.32e-005</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>8.88e-005</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>-0.02112</v>
+        <v>7.2e-006</v>
       </c>
       <c r="B117">
-        <v>-0.0213333333333333</v>
+        <v>3.78666666666667e-005</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.000188666666666667</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2005,13 +2005,13 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.0209066666666667</v>
+        <v>1.81333333333333e-005</v>
       </c>
       <c r="B118">
-        <v>0.0209066666666667</v>
+        <v>3.96e-005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.000191333333333333</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2019,13 +2019,13 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.0213333333333333</v>
+        <v>-6.28e-005</v>
       </c>
       <c r="B119">
-        <v>0.000213333333333333</v>
+        <v>3.06666666666667e-006</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.000169066666666667</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.000213333333333333</v>
+        <v>-0.000111866666666667</v>
       </c>
       <c r="B120">
-        <v>0.02112</v>
+        <v>1.56e-005</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.000210666666666667</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2047,13 +2047,13 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>-0.02112</v>
+        <v>-2.53333333333333e-006</v>
       </c>
       <c r="B121">
-        <v>0.000213333333333333</v>
+        <v>3.29333333333333e-005</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.000282666666666667</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2061,13 +2061,13 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>-0.000213333333333333</v>
+        <v>-1.65333333333333e-005</v>
       </c>
       <c r="B122">
-        <v>-0.02112</v>
+        <v>3.38666666666667e-005</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.000178666666666667</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2075,13 +2075,13 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>-0.02112</v>
+        <v>-7.6e-006</v>
       </c>
       <c r="B123">
-        <v>-0.0213333333333333</v>
+        <v>1.17333333333333e-005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.000116533333333333</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.0209066666666667</v>
+        <v>8e-006</v>
       </c>
       <c r="B124">
-        <v>0.0209066666666667</v>
+        <v>3.14666666666667e-005</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.000264533333333333</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2103,13 +2103,13 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.0213333333333333</v>
+        <v>-4.33333333333333e-005</v>
       </c>
       <c r="B125">
-        <v>0.000213333333333333</v>
+        <v>-3.46666666666667e-006</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>0.000126533333333333</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2117,13 +2117,13 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.000213333333333333</v>
+        <v>1.49333333333333e-005</v>
       </c>
       <c r="B126">
-        <v>0.02112</v>
+        <v>1.96e-005</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.000222533333333333</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>-0.02112</v>
+        <v>-3.33333333333333e-005</v>
       </c>
       <c r="B127">
-        <v>0.000213333333333333</v>
+        <v>1.84e-005</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>0.000228933333333333</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>-0.000213333333333333</v>
+        <v>-4.29333333333333e-005</v>
       </c>
       <c r="B128">
-        <v>-0.02112</v>
+        <v>2.21333333333333e-005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>9.05333333333333e-005</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>-0.02112</v>
+        <v>-2.90666666666667e-005</v>
       </c>
       <c r="B129">
-        <v>-0.0213333333333333</v>
+        <v>2.22666666666667e-005</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.000177466666666667</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>-0.0213333333333333</v>
+        <v>-2.37333333333333e-005</v>
       </c>
       <c r="B130">
-        <v>-0.0107733333333333</v>
+        <v>1.28e-005</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>7.22666666666667e-005</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2187,13 +2187,13 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>-0.0213333333333333</v>
+        <v>-5.69333333333333e-005</v>
       </c>
       <c r="B131">
-        <v>-0.0106666666666667</v>
+        <v>-1.33333333333333e-005</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>4.56e-005</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>-0.0213333333333333</v>
+        <v>-0.000214933333333333</v>
       </c>
       <c r="B132">
-        <v>0.00618666666666667</v>
+        <v>-3.14666666666667e-005</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>2.08e-005</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>-0.0213333333333333</v>
+        <v>8.133333333333331e-006</v>
       </c>
       <c r="B133">
-        <v>0.0106666666666667</v>
+        <v>9.2e-006</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>0.0001588</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.00394666666666667</v>
+        <v>-3.22666666666667e-005</v>
       </c>
       <c r="B134">
-        <v>0.0190933333333333</v>
+        <v>4.8e-006</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>0.000134266666666667</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2243,13 +2243,13 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.0106666666666667</v>
+        <v>-2.44e-005</v>
       </c>
       <c r="B135">
-        <v>0.0213333333333333</v>
+        <v>1.33333333333333e-007</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>0.000185466666666667</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.0106666666666667</v>
+        <v>-9.8e-005</v>
       </c>
       <c r="B136">
-        <v>0.0129066666666667</v>
+        <v>-2e-005</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>0.000145733333333333</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2271,13 +2271,13 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.0106666666666667</v>
+        <v>-1.90666666666667e-005</v>
       </c>
       <c r="B137">
-        <v>0.0106666666666667</v>
+        <v>1.58666666666667e-005</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>0.000129733333333333</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2285,13 +2285,13 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.0106666666666667</v>
+        <v>3.29333333333333e-005</v>
       </c>
       <c r="B138">
-        <v>-0.00405333333333333</v>
+        <v>1.21333333333333e-005</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>0.0001976</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.0106666666666667</v>
+        <v>1.06666666666667e-005</v>
       </c>
       <c r="B139">
-        <v>-0.0106666666666667</v>
+        <v>-2e-006</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>0.000226933333333333</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2313,13 +2313,13 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.0106666666666667</v>
+        <v>-1.45333333333333e-005</v>
       </c>
       <c r="B140">
-        <v>-0.0180266666666667</v>
+        <v>-1.2e-005</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>0.000213466666666667</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.0106666666666667</v>
+        <v>-6.719999999999999e-005</v>
       </c>
       <c r="B141">
-        <v>-0.0213333333333333</v>
+        <v>-2.54666666666667e-005</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.000100666666666667</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2341,13 +2341,13 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.00544</v>
+        <v>-2.05333333333333e-005</v>
       </c>
       <c r="B142">
-        <v>-0.00565333333333333</v>
+        <v>9.46666666666667e-006</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>0.0001856</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0</v>
+        <v>-8.8e-006</v>
       </c>
       <c r="B143">
-        <v>0.0106666666666667</v>
+        <v>1.2e-006</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>0.000236</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0</v>
+        <v>3.41333333333333e-005</v>
       </c>
       <c r="B144">
-        <v>0.00234666666666667</v>
+        <v>-5.86666666666667e-006</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>6.57333333333333e-005</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2383,13 +2383,13 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0</v>
+        <v>-4.72e-005</v>
       </c>
       <c r="B145">
-        <v>-0.0106666666666667</v>
+        <v>-3.97333333333333e-005</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>4.70666666666667e-005</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2397,13 +2397,13 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.00565333333333333</v>
+        <v>-3.82666666666667e-005</v>
       </c>
       <c r="B146">
-        <v>0.00629333333333333</v>
+        <v>-1.90666666666667e-005</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>2.66666666666667e-005</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2411,13 +2411,13 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.0106666666666667</v>
+        <v>-4.13333333333333e-005</v>
       </c>
       <c r="B147">
-        <v>0.0112</v>
+        <v>-2.13333333333333e-005</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>0.000185333333333333</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2425,13 +2425,13 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.0106666666666667</v>
+        <v>-5.24e-005</v>
       </c>
       <c r="B148">
-        <v>0.0106666666666667</v>
+        <v>-1.58666666666667e-005</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>7.559999999999999e-005</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.0106666666666667</v>
+        <v>-0.000118266666666667</v>
       </c>
       <c r="B149">
-        <v>-0.00746666666666667</v>
+        <v>-9.733333333333331e-006</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>7.13333333333333e-005</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.0106666666666667</v>
+        <v>-4.86666666666667e-005</v>
       </c>
       <c r="B150">
-        <v>-0.0106666666666667</v>
+        <v>-2.73333333333333e-005</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>0.000124</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2467,13 +2467,13 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.0106666666666667</v>
+        <v>-2.37333333333333e-005</v>
       </c>
       <c r="B151">
-        <v>-0.0197333333333333</v>
+        <v>2.05333333333333e-005</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.0106666666666667</v>
+        <v>-1.04e-005</v>
       </c>
       <c r="B152">
-        <v>-0.0213333333333333</v>
+        <v>8.66666666666667e-006</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>0.000307333333333333</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.00373333333333333</v>
+        <v>3.37333333333333e-005</v>
       </c>
       <c r="B153">
-        <v>-0.000533333333333333</v>
+        <v>4.68e-005</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>0.000272533333333333</v>
       </c>
       <c r="D153">
         <v>0</v>
